--- a/Code/Results/Cases/Case_0_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_149/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2106462907140241</v>
+        <v>0.3663867549261397</v>
       </c>
       <c r="D2">
-        <v>0.04993816737194834</v>
+        <v>0.01269013612205327</v>
       </c>
       <c r="E2">
-        <v>0.04789232473429728</v>
+        <v>0.1289646226693755</v>
       </c>
       <c r="F2">
-        <v>7.57196405235436</v>
+        <v>8.714809173911618</v>
       </c>
       <c r="G2">
-        <v>0.0008667083232214257</v>
+        <v>0.002775424078496069</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2973404764723568</v>
+        <v>0.4657548065995769</v>
       </c>
       <c r="K2">
-        <v>5.02514596123666</v>
+        <v>6.130759347880144</v>
       </c>
       <c r="L2">
-        <v>0.02064606932403557</v>
+        <v>0.09538396420233397</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.193334857592717</v>
+        <v>0.3651688647943985</v>
       </c>
       <c r="D3">
-        <v>0.04430382337958605</v>
+        <v>0.01123078375112385</v>
       </c>
       <c r="E3">
-        <v>0.04557505590282851</v>
+        <v>0.1295052471542029</v>
       </c>
       <c r="F3">
-        <v>6.948790542066092</v>
+        <v>8.586288342282359</v>
       </c>
       <c r="G3">
-        <v>0.0008806115510929083</v>
+        <v>0.002783461190924375</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2771039422052013</v>
+        <v>0.4629932560373575</v>
       </c>
       <c r="K3">
-        <v>4.441622028717859</v>
+        <v>6.057605493348262</v>
       </c>
       <c r="L3">
-        <v>0.02094704979525552</v>
+        <v>0.09623760867909148</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1831972971746154</v>
+        <v>0.364619400146907</v>
       </c>
       <c r="D4">
-        <v>0.04096425687813365</v>
+        <v>0.01033107699172575</v>
       </c>
       <c r="E4">
-        <v>0.04425737044218003</v>
+        <v>0.1299005386054422</v>
       </c>
       <c r="F4">
-        <v>6.581569005976064</v>
+        <v>8.510250072220032</v>
       </c>
       <c r="G4">
-        <v>0.0008893041793290586</v>
+        <v>0.002788647399605783</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2652719979604896</v>
+        <v>0.4614707889218366</v>
       </c>
       <c r="K4">
-        <v>4.096922134500517</v>
+        <v>6.017315231203213</v>
       </c>
       <c r="L4">
-        <v>0.02116948635020144</v>
+        <v>0.09680096102977132</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1791768431364034</v>
+        <v>0.3644452781432506</v>
       </c>
       <c r="D5">
-        <v>0.03962809292013247</v>
+        <v>0.009963371461694237</v>
       </c>
       <c r="E5">
-        <v>0.04374477800476484</v>
+        <v>0.130077567758871</v>
       </c>
       <c r="F5">
-        <v>6.435303980019739</v>
+        <v>8.479977656568025</v>
       </c>
       <c r="G5">
-        <v>0.0008928905749510369</v>
+        <v>0.002790824292718857</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2605827977082953</v>
+        <v>0.4608936753328123</v>
       </c>
       <c r="K5">
-        <v>3.959452358117744</v>
+        <v>6.002056789686378</v>
       </c>
       <c r="L5">
-        <v>0.0212693949793632</v>
+        <v>0.09704042239521549</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1785155847980775</v>
+        <v>0.3644193701974103</v>
       </c>
       <c r="D6">
-        <v>0.0394075715403801</v>
+        <v>0.009902245444571633</v>
       </c>
       <c r="E6">
-        <v>0.04366107912015949</v>
+        <v>0.1301079268205783</v>
       </c>
       <c r="F6">
-        <v>6.411207609521824</v>
+        <v>8.474993798175348</v>
       </c>
       <c r="G6">
-        <v>0.0008934888869241163</v>
+        <v>0.002791189605120071</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2598117031375509</v>
+        <v>0.4608004548194629</v>
       </c>
       <c r="K6">
-        <v>3.936795428142034</v>
+        <v>5.99959311773739</v>
       </c>
       <c r="L6">
-        <v>0.02128653901734978</v>
+        <v>0.09708078305528645</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1831426437863968</v>
+        <v>0.3646168503823901</v>
       </c>
       <c r="D7">
-        <v>0.04094614344543146</v>
+        <v>0.0103261225044875</v>
       </c>
       <c r="E7">
-        <v>0.04425036128741056</v>
+        <v>0.1299028615008169</v>
       </c>
       <c r="F7">
-        <v>6.579583347470418</v>
+        <v>8.509838929376542</v>
       </c>
       <c r="G7">
-        <v>0.0008893523621869188</v>
+        <v>0.002788676500512128</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2652082423934559</v>
+        <v>0.4614628307321738</v>
       </c>
       <c r="K7">
-        <v>4.095056544876172</v>
+        <v>6.01710475713395</v>
       </c>
       <c r="L7">
-        <v>0.02117079648387943</v>
+        <v>0.09680415040083545</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2045669318790146</v>
+        <v>0.3659256124797139</v>
       </c>
       <c r="D8">
-        <v>0.04796707006460821</v>
+        <v>0.01218762133152751</v>
       </c>
       <c r="E8">
-        <v>0.047070187593377</v>
+        <v>0.1291378915682593</v>
       </c>
       <c r="F8">
-        <v>7.353578940937922</v>
+        <v>8.669893248918811</v>
       </c>
       <c r="G8">
-        <v>0.0008714728874141749</v>
+        <v>0.002778143254595018</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2902289980542747</v>
+        <v>0.464766546875822</v>
       </c>
       <c r="K8">
-        <v>4.820858379056915</v>
+        <v>6.104573649419194</v>
       </c>
       <c r="L8">
-        <v>0.02074190613952887</v>
+        <v>0.09567018090578472</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2511651347946042</v>
+        <v>0.3700702239161728</v>
       </c>
       <c r="D9">
-        <v>0.06297305918241136</v>
+        <v>0.01581576951538466</v>
       </c>
       <c r="E9">
-        <v>0.05354302608679617</v>
+        <v>0.1281398557129343</v>
       </c>
       <c r="F9">
-        <v>9.019627292442209</v>
+        <v>9.006988289050611</v>
       </c>
       <c r="G9">
-        <v>0.0008373944557251235</v>
+        <v>0.002759470472728474</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3448867598219465</v>
+        <v>0.4726302289338662</v>
       </c>
       <c r="K9">
-        <v>6.374096776934039</v>
+        <v>6.312980705007078</v>
       </c>
       <c r="L9">
-        <v>0.0202104829881975</v>
+        <v>0.09375624352598244</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.289341963585116</v>
+        <v>0.3740848480057366</v>
       </c>
       <c r="D10">
-        <v>0.07523448445613923</v>
+        <v>0.01847737615769773</v>
       </c>
       <c r="E10">
-        <v>0.05905702988171058</v>
+        <v>0.1277121458084984</v>
       </c>
       <c r="F10">
-        <v>10.3775050324509</v>
+        <v>9.26943508674691</v>
       </c>
       <c r="G10">
-        <v>0.0008125317262993804</v>
+        <v>0.002746943850383044</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3899334210627217</v>
+        <v>0.4792690553316703</v>
       </c>
       <c r="K10">
-        <v>7.631795145933268</v>
+        <v>6.488858185524009</v>
       </c>
       <c r="L10">
-        <v>0.0200281503234816</v>
+        <v>0.09253710574181184</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3078931112740122</v>
+        <v>0.376123534067915</v>
       </c>
       <c r="D11">
-        <v>0.08122009139839292</v>
+        <v>0.01968943357982766</v>
       </c>
       <c r="E11">
-        <v>0.06178283330130441</v>
+        <v>0.1275838409062473</v>
       </c>
       <c r="F11">
-        <v>11.0367182057754</v>
+        <v>9.392177357623041</v>
       </c>
       <c r="G11">
-        <v>0.0008011380442603006</v>
+        <v>0.002741500497276388</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4119115874952115</v>
+        <v>0.4824801033205546</v>
       </c>
       <c r="K11">
-        <v>8.240010138718503</v>
+        <v>6.573877054928744</v>
       </c>
       <c r="L11">
-        <v>0.01999619487873616</v>
+        <v>0.09202272313312676</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3151231249096327</v>
+        <v>0.3769262144977006</v>
       </c>
       <c r="D12">
-        <v>0.08356027905769992</v>
+        <v>0.02014876091337925</v>
       </c>
       <c r="E12">
-        <v>0.06285190992425527</v>
+        <v>0.1275447773440774</v>
       </c>
       <c r="F12">
-        <v>11.29363604664229</v>
+        <v>9.439149862624731</v>
       </c>
       <c r="G12">
-        <v>0.0007967987139434024</v>
+        <v>0.00273947564362632</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4204929842615854</v>
+        <v>0.4837238129411361</v>
       </c>
       <c r="K12">
-        <v>8.476664935994791</v>
+        <v>6.60679716071229</v>
       </c>
       <c r="L12">
-        <v>0.01999206393314346</v>
+        <v>0.09183369238776251</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3135562511697287</v>
+        <v>0.3767519765258385</v>
       </c>
       <c r="D13">
-        <v>0.08305273018674342</v>
+        <v>0.02004981847520781</v>
       </c>
       <c r="E13">
-        <v>0.06261992211267398</v>
+        <v>0.1275527669322187</v>
       </c>
       <c r="F13">
-        <v>11.23795580318313</v>
+        <v>9.429011414150352</v>
       </c>
       <c r="G13">
-        <v>0.0007977346036165051</v>
+        <v>0.002739910116032448</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4186324915380339</v>
+        <v>0.483454718728666</v>
       </c>
       <c r="K13">
-        <v>8.425394083342383</v>
+        <v>6.599674891846803</v>
       </c>
       <c r="L13">
-        <v>0.01999258727174968</v>
+        <v>0.09187414802454086</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3084835910409254</v>
+        <v>0.3761889555468088</v>
       </c>
       <c r="D14">
-        <v>0.08141104763555518</v>
+        <v>0.01972721480785822</v>
       </c>
       <c r="E14">
-        <v>0.0618700112157704</v>
+        <v>0.1275804363020292</v>
       </c>
       <c r="F14">
-        <v>11.05770030166394</v>
+        <v>9.396031879873533</v>
       </c>
       <c r="G14">
-        <v>0.0008007816253343415</v>
+        <v>0.002741333182806172</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4126121041820454</v>
+        <v>0.4825818661231551</v>
       </c>
       <c r="K14">
-        <v>8.259345341117239</v>
+        <v>6.576570848055553</v>
       </c>
       <c r="L14">
-        <v>0.0199956910761081</v>
+        <v>0.092007056280341</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3054043153866246</v>
+        <v>0.3758480875925443</v>
       </c>
       <c r="D15">
-        <v>0.08041555254509092</v>
+        <v>0.01952966088766317</v>
       </c>
       <c r="E15">
-        <v>0.06141565909923941</v>
+        <v>0.1275986245822232</v>
       </c>
       <c r="F15">
-        <v>10.94828194064308</v>
+        <v>9.375895434553684</v>
       </c>
       <c r="G15">
-        <v>0.0008026443575391416</v>
+        <v>0.002742209588202371</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4089596480724111</v>
+        <v>0.482050841949885</v>
       </c>
       <c r="K15">
-        <v>8.158499532261715</v>
+        <v>6.562513552943699</v>
       </c>
       <c r="L15">
-        <v>0.01999865176682292</v>
+        <v>0.09208921506593271</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2881562376716147</v>
+        <v>0.3739559002942201</v>
       </c>
       <c r="D16">
-        <v>0.07485271726912401</v>
+        <v>0.01839820503282397</v>
       </c>
       <c r="E16">
-        <v>0.05888371939121129</v>
+        <v>0.1277218636836217</v>
       </c>
       <c r="F16">
-        <v>10.33536544440432</v>
+        <v>9.261481963125021</v>
       </c>
       <c r="G16">
-        <v>0.0008132736198427637</v>
+        <v>0.002747304697548235</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3885306299824407</v>
+        <v>0.4790630739164783</v>
       </c>
       <c r="K16">
-        <v>7.592865335318209</v>
+        <v>6.483403238443316</v>
       </c>
       <c r="L16">
-        <v>0.02003131579324169</v>
+        <v>0.09257152862767626</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2779008997899837</v>
+        <v>0.3728495988606824</v>
       </c>
       <c r="D17">
-        <v>0.07155415238735685</v>
+        <v>0.01770453692018492</v>
       </c>
       <c r="E17">
-        <v>0.05738976822614106</v>
+        <v>0.1278144337682683</v>
       </c>
       <c r="F17">
-        <v>9.970843918882395</v>
+        <v>9.192159348448683</v>
       </c>
       <c r="G17">
-        <v>0.0008197646856357829</v>
+        <v>0.002750495531918418</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3764078067171539</v>
+        <v>0.4772793006117126</v>
       </c>
       <c r="K17">
-        <v>7.255848315858373</v>
+        <v>6.436158406201173</v>
       </c>
       <c r="L17">
-        <v>0.02006482121081987</v>
+        <v>0.09287769139856827</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2721113042448593</v>
+        <v>0.3722332687468679</v>
       </c>
       <c r="D18">
-        <v>0.06969422673364534</v>
+        <v>0.01730566788231869</v>
       </c>
       <c r="E18">
-        <v>0.05655055667581976</v>
+        <v>0.1278739148305448</v>
       </c>
       <c r="F18">
-        <v>9.764994014825135</v>
+        <v>9.152601867397749</v>
       </c>
       <c r="G18">
-        <v>0.0008234912219664547</v>
+        <v>0.002752354838982589</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3695717710679531</v>
+        <v>0.4762712827371445</v>
       </c>
       <c r="K18">
-        <v>7.065319421712786</v>
+        <v>6.409455824370582</v>
       </c>
       <c r="L18">
-        <v>0.02008884594894411</v>
+        <v>0.09305757441859797</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2701688272623244</v>
+        <v>0.3720280186025207</v>
       </c>
       <c r="D19">
-        <v>0.06907049619361061</v>
+        <v>0.01717063170850253</v>
       </c>
       <c r="E19">
-        <v>0.05626970962925881</v>
+        <v>0.1278951255376839</v>
       </c>
       <c r="F19">
-        <v>9.695916033950908</v>
+        <v>9.139262181367712</v>
       </c>
       <c r="G19">
-        <v>0.0008247521149519132</v>
+        <v>0.00275298850217032</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3672794668425183</v>
+        <v>0.4759330614247546</v>
       </c>
       <c r="K19">
-        <v>7.001347895147092</v>
+        <v>6.400495612468944</v>
       </c>
       <c r="L19">
-        <v>0.02009777966684645</v>
+        <v>0.09311913085460333</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2789810883967903</v>
+        <v>0.3729652972265853</v>
       </c>
       <c r="D20">
-        <v>0.07190133012189648</v>
+        <v>0.01777836645823072</v>
       </c>
       <c r="E20">
-        <v>0.05754668802151741</v>
+        <v>0.1278039340446213</v>
       </c>
       <c r="F20">
-        <v>10.00924455249788</v>
+        <v>9.199506177692257</v>
       </c>
       <c r="G20">
-        <v>0.0008190745038423791</v>
+        <v>0.002750153377689139</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3776838597518974</v>
+        <v>0.4774673253299255</v>
       </c>
       <c r="K20">
-        <v>7.291373814363965</v>
+        <v>6.441138878320828</v>
       </c>
       <c r="L20">
-        <v>0.0200607584136403</v>
+        <v>0.09284470818163371</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3099676715876001</v>
+        <v>0.3763534949007976</v>
       </c>
       <c r="D21">
-        <v>0.08189111659302029</v>
+        <v>0.0198219605803942</v>
       </c>
       <c r="E21">
-        <v>0.06208922646366233</v>
+        <v>0.1275720507324394</v>
       </c>
       <c r="F21">
-        <v>11.11043591108393</v>
+        <v>9.405705313876524</v>
       </c>
       <c r="G21">
-        <v>0.0007998874303488784</v>
+        <v>0.002740914207007464</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4143730059530952</v>
+        <v>0.4828374884860267</v>
       </c>
       <c r="K21">
-        <v>8.30793542135757</v>
+        <v>6.583337342783807</v>
       </c>
       <c r="L21">
-        <v>0.01999455724160626</v>
+        <v>0.09196786193574624</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3314369557063799</v>
+        <v>0.3787467359318839</v>
       </c>
       <c r="D22">
-        <v>0.08885850786401051</v>
+        <v>0.02115967023041776</v>
       </c>
       <c r="E22">
-        <v>0.06527656641816293</v>
+        <v>0.1274760056036683</v>
       </c>
       <c r="F22">
-        <v>11.87345535625667</v>
+        <v>9.543344988300987</v>
       </c>
       <c r="G22">
-        <v>0.0007871948756928142</v>
+        <v>0.002735088077160164</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4398885350248491</v>
+        <v>0.486509119353471</v>
       </c>
       <c r="K22">
-        <v>9.009995332975166</v>
+        <v>6.680502222233315</v>
       </c>
       <c r="L22">
-        <v>0.0199981655454895</v>
+        <v>0.09142832317813365</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3198532981994617</v>
+        <v>0.3774530080989962</v>
       </c>
       <c r="D23">
-        <v>0.08509385593829677</v>
+        <v>0.0204454624699224</v>
       </c>
       <c r="E23">
-        <v>0.06355322336804647</v>
+        <v>0.1275221896112768</v>
       </c>
       <c r="F23">
-        <v>11.4617343753207</v>
+        <v>9.469617412078208</v>
       </c>
       <c r="G23">
-        <v>0.0007939881255651446</v>
+        <v>0.00273817825919961</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.426112069412369</v>
+        <v>0.4845345882095131</v>
       </c>
       <c r="K23">
-        <v>8.631392095884792</v>
+        <v>6.628254851169913</v>
       </c>
       <c r="L23">
-        <v>0.01999169613306684</v>
+        <v>0.09171322597366327</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.278492406437806</v>
+        <v>0.3729129286530508</v>
       </c>
       <c r="D24">
-        <v>0.07174425857165545</v>
+        <v>0.01774498835493432</v>
       </c>
       <c r="E24">
-        <v>0.05747568368620648</v>
+        <v>0.1278086614667266</v>
       </c>
       <c r="F24">
-        <v>9.991872139659478</v>
+        <v>9.196183751843563</v>
       </c>
       <c r="G24">
-        <v>0.0008193865506205267</v>
+        <v>0.002750307988109757</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3771065434970495</v>
+        <v>0.4773822648765815</v>
       </c>
       <c r="K24">
-        <v>7.275302769177244</v>
+        <v>6.438885777228052</v>
       </c>
       <c r="L24">
-        <v>0.02006258041775055</v>
+        <v>0.09285960785024017</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2379620841183794</v>
+        <v>0.3687792932409479</v>
       </c>
       <c r="D25">
-        <v>0.0587365377738891</v>
+        <v>0.01483565752631222</v>
       </c>
       <c r="E25">
-        <v>0.05167402079266736</v>
+        <v>0.1283561602483694</v>
       </c>
       <c r="F25">
-        <v>8.549019226676108</v>
+        <v>8.91324462430876</v>
       </c>
       <c r="G25">
-        <v>0.0008465477444086211</v>
+        <v>0.002764311384139639</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3293645861704135</v>
+        <v>0.4703528773074765</v>
       </c>
       <c r="K25">
-        <v>5.936547631997598</v>
+        <v>6.25262479484752</v>
       </c>
       <c r="L25">
-        <v>0.0203193477482202</v>
+        <v>0.09424104007939604</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_149/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_149/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3663867549261397</v>
+        <v>0.2106462907127451</v>
       </c>
       <c r="D2">
-        <v>0.01269013612205327</v>
+        <v>0.04993816737197676</v>
       </c>
       <c r="E2">
-        <v>0.1289646226693755</v>
+        <v>0.04789232473428306</v>
       </c>
       <c r="F2">
-        <v>8.714809173911618</v>
+        <v>7.571964052354417</v>
       </c>
       <c r="G2">
-        <v>0.002775424078496069</v>
+        <v>0.000866708323116357</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4657548065995769</v>
+        <v>0.2973404764723284</v>
       </c>
       <c r="K2">
-        <v>6.130759347880144</v>
+        <v>5.025145961236888</v>
       </c>
       <c r="L2">
-        <v>0.09538396420233397</v>
+        <v>0.02064606932400537</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3651688647943985</v>
+        <v>0.1933348575931149</v>
       </c>
       <c r="D3">
-        <v>0.01123078375112385</v>
+        <v>0.04430382337967131</v>
       </c>
       <c r="E3">
-        <v>0.1295052471542029</v>
+        <v>0.04557505590280897</v>
       </c>
       <c r="F3">
-        <v>8.586288342282359</v>
+        <v>6.948790542066121</v>
       </c>
       <c r="G3">
-        <v>0.002783461190924375</v>
+        <v>0.0008806115512503379</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4629932560373575</v>
+        <v>0.2771039422050592</v>
       </c>
       <c r="K3">
-        <v>6.057605493348262</v>
+        <v>4.441622028717859</v>
       </c>
       <c r="L3">
-        <v>0.09623760867909148</v>
+        <v>0.02094704979509032</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.364619400146907</v>
+        <v>0.1831972971746012</v>
       </c>
       <c r="D4">
-        <v>0.01033107699172575</v>
+        <v>0.04096425687817629</v>
       </c>
       <c r="E4">
-        <v>0.1299005386054422</v>
+        <v>0.04425737044219957</v>
       </c>
       <c r="F4">
-        <v>8.510250072220032</v>
+        <v>6.581569005976121</v>
       </c>
       <c r="G4">
-        <v>0.002788647399605783</v>
+        <v>0.0008893041792350911</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4614707889218366</v>
+        <v>0.2652719979600988</v>
       </c>
       <c r="K4">
-        <v>6.017315231203213</v>
+        <v>4.09692213450063</v>
       </c>
       <c r="L4">
-        <v>0.09680096102977132</v>
+        <v>0.02116948635038263</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3644452781432506</v>
+        <v>0.1791768431363465</v>
       </c>
       <c r="D5">
-        <v>0.009963371461694237</v>
+        <v>0.03962809292006853</v>
       </c>
       <c r="E5">
-        <v>0.130077567758871</v>
+        <v>0.04374477800474352</v>
       </c>
       <c r="F5">
-        <v>8.479977656568025</v>
+        <v>6.435303980019654</v>
       </c>
       <c r="G5">
-        <v>0.002790824292718857</v>
+        <v>0.000892890574878259</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4608936753328123</v>
+        <v>0.2605827977083237</v>
       </c>
       <c r="K5">
-        <v>6.002056789686378</v>
+        <v>3.959452358117801</v>
       </c>
       <c r="L5">
-        <v>0.09704042239521549</v>
+        <v>0.02126939497921398</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3644193701974103</v>
+        <v>0.1785155847980775</v>
       </c>
       <c r="D6">
-        <v>0.009902245444571633</v>
+        <v>0.039407571540373</v>
       </c>
       <c r="E6">
-        <v>0.1301079268205783</v>
+        <v>0.04366107912012573</v>
       </c>
       <c r="F6">
-        <v>8.474993798175348</v>
+        <v>6.411207609521796</v>
       </c>
       <c r="G6">
-        <v>0.002791189605120071</v>
+        <v>0.0008934888869223809</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4608004548194629</v>
+        <v>0.2598117031376219</v>
       </c>
       <c r="K6">
-        <v>5.99959311773739</v>
+        <v>3.936795428141977</v>
       </c>
       <c r="L6">
-        <v>0.09708078305528645</v>
+        <v>0.02128653901715793</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3646168503823901</v>
+        <v>0.1831426437863968</v>
       </c>
       <c r="D7">
-        <v>0.0103261225044875</v>
+        <v>0.04094614344541725</v>
       </c>
       <c r="E7">
-        <v>0.1299028615008169</v>
+        <v>0.04425036128747628</v>
       </c>
       <c r="F7">
-        <v>8.509838929376542</v>
+        <v>6.57958334747039</v>
       </c>
       <c r="G7">
-        <v>0.002788676500512128</v>
+        <v>0.000889352362212454</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4614628307321738</v>
+        <v>0.265208242393328</v>
       </c>
       <c r="K7">
-        <v>6.01710475713395</v>
+        <v>4.095056544876229</v>
       </c>
       <c r="L7">
-        <v>0.09680415040083545</v>
+        <v>0.02117079648393805</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3659256124797139</v>
+        <v>0.2045669318790004</v>
       </c>
       <c r="D8">
-        <v>0.01218762133152751</v>
+        <v>0.04796707006457979</v>
       </c>
       <c r="E8">
-        <v>0.1291378915682593</v>
+        <v>0.04707018759336989</v>
       </c>
       <c r="F8">
-        <v>8.669893248918811</v>
+        <v>7.353578940937922</v>
       </c>
       <c r="G8">
-        <v>0.002778143254595018</v>
+        <v>0.000871472887349362</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.464766546875822</v>
+        <v>0.2902289980542037</v>
       </c>
       <c r="K8">
-        <v>6.104573649419194</v>
+        <v>4.820858379057029</v>
       </c>
       <c r="L8">
-        <v>0.09567018090578472</v>
+        <v>0.02074190613958748</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3700702239161728</v>
+        <v>0.2511651347955564</v>
       </c>
       <c r="D9">
-        <v>0.01581576951538466</v>
+        <v>0.06297305918263163</v>
       </c>
       <c r="E9">
-        <v>0.1281398557129343</v>
+        <v>0.05354302608666828</v>
       </c>
       <c r="F9">
-        <v>9.006988289050611</v>
+        <v>9.019627292442181</v>
       </c>
       <c r="G9">
-        <v>0.002759470472728474</v>
+        <v>0.0008373944557291679</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4726302289338662</v>
+        <v>0.3448867598219891</v>
       </c>
       <c r="K9">
-        <v>6.312980705007078</v>
+        <v>6.374096776934323</v>
       </c>
       <c r="L9">
-        <v>0.09375624352598244</v>
+        <v>0.02021048298812111</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3740848480057366</v>
+        <v>0.2893419635846612</v>
       </c>
       <c r="D10">
-        <v>0.01847737615769773</v>
+        <v>0.07523448445588343</v>
       </c>
       <c r="E10">
-        <v>0.1277121458084984</v>
+        <v>0.05905702988176031</v>
       </c>
       <c r="F10">
-        <v>9.26943508674691</v>
+        <v>10.3775050324511</v>
       </c>
       <c r="G10">
-        <v>0.002746943850383044</v>
+        <v>0.0008125317264139078</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4792690553316703</v>
+        <v>0.3899334210623522</v>
       </c>
       <c r="K10">
-        <v>6.488858185524009</v>
+        <v>7.631795145933438</v>
       </c>
       <c r="L10">
-        <v>0.09253710574181184</v>
+        <v>0.02002815032344429</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.376123534067915</v>
+        <v>0.3078931112739554</v>
       </c>
       <c r="D11">
-        <v>0.01968943357982766</v>
+        <v>0.08122009139858477</v>
       </c>
       <c r="E11">
-        <v>0.1275838409062473</v>
+        <v>0.06178283330134349</v>
       </c>
       <c r="F11">
-        <v>9.392177357623041</v>
+        <v>11.03671820577557</v>
       </c>
       <c r="G11">
-        <v>0.002741500497276388</v>
+        <v>0.0008011380443759819</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4824801033205546</v>
+        <v>0.4119115874952968</v>
       </c>
       <c r="K11">
-        <v>6.573877054928744</v>
+        <v>8.240010138718503</v>
       </c>
       <c r="L11">
-        <v>0.09202272313312676</v>
+        <v>0.01999619487843241</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3769262144977006</v>
+        <v>0.3151231249095758</v>
       </c>
       <c r="D12">
-        <v>0.02014876091337925</v>
+        <v>0.08356027905762176</v>
       </c>
       <c r="E12">
-        <v>0.1275447773440774</v>
+        <v>0.0628519099241629</v>
       </c>
       <c r="F12">
-        <v>9.439149862624731</v>
+        <v>11.2936360466424</v>
       </c>
       <c r="G12">
-        <v>0.00273947564362632</v>
+        <v>0.0007967987138083962</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4837238129411361</v>
+        <v>0.4204929842618128</v>
       </c>
       <c r="K12">
-        <v>6.60679716071229</v>
+        <v>8.476664935994961</v>
       </c>
       <c r="L12">
-        <v>0.09183369238776251</v>
+        <v>0.0199920639332376</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3767519765258385</v>
+        <v>0.3135562511696719</v>
       </c>
       <c r="D13">
-        <v>0.02004981847520781</v>
+        <v>0.08305273018708448</v>
       </c>
       <c r="E13">
-        <v>0.1275527669322187</v>
+        <v>0.06261992211263134</v>
       </c>
       <c r="F13">
-        <v>9.429011414150352</v>
+        <v>11.23795580318324</v>
       </c>
       <c r="G13">
-        <v>0.002739910116032448</v>
+        <v>0.0007977346037185873</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.483454718728666</v>
+        <v>0.4186324915380482</v>
       </c>
       <c r="K13">
-        <v>6.599674891846803</v>
+        <v>8.425394083342496</v>
       </c>
       <c r="L13">
-        <v>0.09187414802454086</v>
+        <v>0.01999258727149389</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3761889555468088</v>
+        <v>0.3084835910403569</v>
       </c>
       <c r="D14">
-        <v>0.01972721480785822</v>
+        <v>0.08141104763569018</v>
       </c>
       <c r="E14">
-        <v>0.1275804363020292</v>
+        <v>0.06187001121584856</v>
       </c>
       <c r="F14">
-        <v>9.396031879873533</v>
+        <v>11.05770030166411</v>
       </c>
       <c r="G14">
-        <v>0.002741333182806172</v>
+        <v>0.0008007816254258504</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4825818661231551</v>
+        <v>0.4126121041820028</v>
       </c>
       <c r="K14">
-        <v>6.576570848055553</v>
+        <v>8.259345341117125</v>
       </c>
       <c r="L14">
-        <v>0.092007056280341</v>
+        <v>0.01999569107609211</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3758480875925443</v>
+        <v>0.3054043153875909</v>
       </c>
       <c r="D15">
-        <v>0.01952966088766317</v>
+        <v>0.08041555254492749</v>
       </c>
       <c r="E15">
-        <v>0.1275986245822232</v>
+        <v>0.06141565909925717</v>
       </c>
       <c r="F15">
-        <v>9.375895434553684</v>
+        <v>10.94828194064303</v>
       </c>
       <c r="G15">
-        <v>0.002742209588202371</v>
+        <v>0.0008026443574381202</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.482050841949885</v>
+        <v>0.4089596480725533</v>
       </c>
       <c r="K15">
-        <v>6.562513552943699</v>
+        <v>8.158499532261658</v>
       </c>
       <c r="L15">
-        <v>0.09208921506593271</v>
+        <v>0.01999865176696858</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3739559002942201</v>
+        <v>0.2881562376721547</v>
       </c>
       <c r="D16">
-        <v>0.01839820503282397</v>
+        <v>0.0748527172692377</v>
       </c>
       <c r="E16">
-        <v>0.1277218636836217</v>
+        <v>0.05888371939114734</v>
       </c>
       <c r="F16">
-        <v>9.261481963125021</v>
+        <v>10.33536544440415</v>
       </c>
       <c r="G16">
-        <v>0.002747304697548235</v>
+        <v>0.0008132736198662084</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4790630739164783</v>
+        <v>0.3885306299823839</v>
       </c>
       <c r="K16">
-        <v>6.483403238443316</v>
+        <v>7.592865335318152</v>
       </c>
       <c r="L16">
-        <v>0.09257152862767626</v>
+        <v>0.02003131579317241</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3728495988606824</v>
+        <v>0.2779008997899268</v>
       </c>
       <c r="D17">
-        <v>0.01770453692018492</v>
+        <v>0.07155415238749185</v>
       </c>
       <c r="E17">
-        <v>0.1278144337682683</v>
+        <v>0.05738976822605224</v>
       </c>
       <c r="F17">
-        <v>9.192159348448683</v>
+        <v>9.970843918882508</v>
       </c>
       <c r="G17">
-        <v>0.002750495531918418</v>
+        <v>0.0008197646856209495</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4772793006117126</v>
+        <v>0.3764078067169834</v>
       </c>
       <c r="K17">
-        <v>6.436158406201173</v>
+        <v>7.255848315858316</v>
       </c>
       <c r="L17">
-        <v>0.09287769139856827</v>
+        <v>0.02006482121099395</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3722332687468679</v>
+        <v>0.2721113042453283</v>
       </c>
       <c r="D18">
-        <v>0.01730566788231869</v>
+        <v>0.06969422673407166</v>
       </c>
       <c r="E18">
-        <v>0.1278739148305448</v>
+        <v>0.05655055667581266</v>
       </c>
       <c r="F18">
-        <v>9.152601867397749</v>
+        <v>9.764994014825078</v>
       </c>
       <c r="G18">
-        <v>0.002752354838982589</v>
+        <v>0.000823491221962902</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4762712827371445</v>
+        <v>0.3695717710679105</v>
       </c>
       <c r="K18">
-        <v>6.409455824370582</v>
+        <v>7.065319421712729</v>
       </c>
       <c r="L18">
-        <v>0.09305757441859797</v>
+        <v>0.0200888459492532</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3720280186025207</v>
+        <v>0.2701688272627081</v>
       </c>
       <c r="D19">
-        <v>0.01717063170850253</v>
+        <v>0.06907049619373851</v>
       </c>
       <c r="E19">
-        <v>0.1278951255376839</v>
+        <v>0.05626970962927302</v>
       </c>
       <c r="F19">
-        <v>9.139262181367712</v>
+        <v>9.695916033951022</v>
       </c>
       <c r="G19">
-        <v>0.00275298850217032</v>
+        <v>0.000824752114932774</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4759330614247546</v>
+        <v>0.3672794668425183</v>
       </c>
       <c r="K19">
-        <v>6.400495612468944</v>
+        <v>7.001347895147205</v>
       </c>
       <c r="L19">
-        <v>0.09311913085460333</v>
+        <v>0.02009777966708093</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3729652972265853</v>
+        <v>0.2789810883976713</v>
       </c>
       <c r="D20">
-        <v>0.01777836645823072</v>
+        <v>0.07190133012159095</v>
       </c>
       <c r="E20">
-        <v>0.1278039340446213</v>
+        <v>0.0575466880214961</v>
       </c>
       <c r="F20">
-        <v>9.199506177692257</v>
+        <v>10.00924455249805</v>
       </c>
       <c r="G20">
-        <v>0.002750153377689139</v>
+        <v>0.0008190745038286639</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4774673253299255</v>
+        <v>0.3776838597521106</v>
       </c>
       <c r="K20">
-        <v>6.441138878320828</v>
+        <v>7.291373814363965</v>
       </c>
       <c r="L20">
-        <v>0.09284470818163371</v>
+        <v>0.02006075841361366</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3763534949007976</v>
+        <v>0.3099676715875432</v>
       </c>
       <c r="D21">
-        <v>0.0198219605803942</v>
+        <v>0.08189111659316239</v>
       </c>
       <c r="E21">
-        <v>0.1275720507324394</v>
+        <v>0.06208922646355575</v>
       </c>
       <c r="F21">
-        <v>9.405705313876524</v>
+        <v>11.11043591108415</v>
       </c>
       <c r="G21">
-        <v>0.002740914207007464</v>
+        <v>0.0007998874303332883</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4828374884860267</v>
+        <v>0.4143730059532515</v>
       </c>
       <c r="K21">
-        <v>6.583337342783807</v>
+        <v>8.307935421357627</v>
       </c>
       <c r="L21">
-        <v>0.09196786193574624</v>
+        <v>0.01999455724151922</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3787467359318839</v>
+        <v>0.3314369557049019</v>
       </c>
       <c r="D22">
-        <v>0.02115967023041776</v>
+        <v>0.08885850786404603</v>
       </c>
       <c r="E22">
-        <v>0.1274760056036683</v>
+        <v>0.06527656641824109</v>
       </c>
       <c r="F22">
-        <v>9.543344988300987</v>
+        <v>11.87345535625656</v>
       </c>
       <c r="G22">
-        <v>0.002735088077160164</v>
+        <v>0.0007871948758264445</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.486509119353471</v>
+        <v>0.4398885350248207</v>
       </c>
       <c r="K22">
-        <v>6.680502222233315</v>
+        <v>9.009995332975052</v>
       </c>
       <c r="L22">
-        <v>0.09142832317813365</v>
+        <v>0.01999816554534917</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3774530080989962</v>
+        <v>0.3198532982004849</v>
       </c>
       <c r="D23">
-        <v>0.0204454624699224</v>
+        <v>0.08509385593792018</v>
       </c>
       <c r="E23">
-        <v>0.1275221896112768</v>
+        <v>0.06355322336808555</v>
       </c>
       <c r="F23">
-        <v>9.469617412078208</v>
+        <v>11.46173437532059</v>
       </c>
       <c r="G23">
-        <v>0.00273817825919961</v>
+        <v>0.0007939881254596383</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4845345882095131</v>
+        <v>0.4261120694123548</v>
       </c>
       <c r="K23">
-        <v>6.628254851169913</v>
+        <v>8.631392095884848</v>
       </c>
       <c r="L23">
-        <v>0.09171322597366327</v>
+        <v>0.01999169613329599</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3729129286530508</v>
+        <v>0.2784924064383461</v>
       </c>
       <c r="D24">
-        <v>0.01774498835493432</v>
+        <v>0.07174425857192546</v>
       </c>
       <c r="E24">
-        <v>0.1278086614667266</v>
+        <v>0.05747568368616385</v>
       </c>
       <c r="F24">
-        <v>9.196183751843563</v>
+        <v>9.991872139659449</v>
       </c>
       <c r="G24">
-        <v>0.002750307988109757</v>
+        <v>0.0008193865506307514</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4773822648765815</v>
+        <v>0.377106543497149</v>
       </c>
       <c r="K24">
-        <v>6.438885777228052</v>
+        <v>7.275302769177244</v>
       </c>
       <c r="L24">
-        <v>0.09285960785024017</v>
+        <v>0.02006258041772746</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3687792932409479</v>
+        <v>0.2379620841188199</v>
       </c>
       <c r="D25">
-        <v>0.01483565752631222</v>
+        <v>0.05873653777383225</v>
       </c>
       <c r="E25">
-        <v>0.1283561602483694</v>
+        <v>0.05167402079269934</v>
       </c>
       <c r="F25">
-        <v>8.91324462430876</v>
+        <v>8.549019226676108</v>
       </c>
       <c r="G25">
-        <v>0.002764311384139639</v>
+        <v>0.0008465477441762073</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4703528773074765</v>
+        <v>0.329364586170442</v>
       </c>
       <c r="K25">
-        <v>6.25262479484752</v>
+        <v>5.936547631997655</v>
       </c>
       <c r="L25">
-        <v>0.09424104007939604</v>
+        <v>0.02031934774822197</v>
       </c>
       <c r="M25">
         <v>0</v>
